--- a/Cabling Sheet & Server details of 0B-GDC 06th Nov 2024.xlsx
+++ b/Cabling Sheet & Server details of 0B-GDC 06th Nov 2024.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myl-my.sharepoint.com/personal/keshavamurti_vadavi_viatris_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{F84EFCC2-A520-47CA-A3CE-3DBEB5B4743E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{661839AC-8B16-433B-9B6A-C32D5EF94D06}"/>
+  <xr:revisionPtr revIDLastSave="500" documentId="8_{F84EFCC2-A520-47CA-A3CE-3DBEB5B4743E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BA30110-FFA4-49CF-BAA5-C937256A44A9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4FBC8E8F-C8EC-49D3-AB19-412B162FC824}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{4FBC8E8F-C8EC-49D3-AB19-412B162FC824}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="0B&amp;07 SRA_Trackwise" sheetId="1" r:id="rId1"/>
+    <sheet name="Cabling Sheet of C6 Dublin new " sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="141">
   <si>
     <t>SL No</t>
   </si>
@@ -210,13 +212,262 @@
   </si>
   <si>
     <t>172.31.0.15</t>
+  </si>
+  <si>
+    <t>INC3063680</t>
+  </si>
+  <si>
+    <t>INC3063679</t>
+  </si>
+  <si>
+    <t>NW-Data</t>
+  </si>
+  <si>
+    <t>ENT</t>
+  </si>
+  <si>
+    <t>MDF</t>
+  </si>
+  <si>
+    <t>New Room</t>
+  </si>
+  <si>
+    <t>ec6rr0u11</t>
+  </si>
+  <si>
+    <t>IMM</t>
+  </si>
+  <si>
+    <t>IRE-C6DUB-MGMT-SW1</t>
+  </si>
+  <si>
+    <t>1000BaseSX</t>
+  </si>
+  <si>
+    <t>Slot-5-1</t>
+  </si>
+  <si>
+    <t>MD1</t>
+  </si>
+  <si>
+    <t>10GBase-SR</t>
+  </si>
+  <si>
+    <t>Slot-5-2</t>
+  </si>
+  <si>
+    <t>ED1</t>
+  </si>
+  <si>
+    <t>Slot-1-1</t>
+  </si>
+  <si>
+    <t>MD2</t>
+  </si>
+  <si>
+    <t>Slot-1-2</t>
+  </si>
+  <si>
+    <t>ED2</t>
+  </si>
+  <si>
+    <t>sc6sansw003</t>
+  </si>
+  <si>
+    <t>fc1/18</t>
+  </si>
+  <si>
+    <t>sc6sansw004</t>
+  </si>
+  <si>
+    <t>ec6rr0u17</t>
+  </si>
+  <si>
+    <t>fc1/21</t>
+  </si>
+  <si>
+    <t>fc1/19</t>
+  </si>
+  <si>
+    <t>ec6rr0u15</t>
+  </si>
+  <si>
+    <t>fc1/20</t>
+  </si>
+  <si>
+    <t>ec6rr0u19</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Rack Unit</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Ports</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>Port numbers</t>
+  </si>
+  <si>
+    <t>Data speed</t>
+  </si>
+  <si>
+    <t>Server Name</t>
+  </si>
+  <si>
+    <t>MFG FC1</t>
+  </si>
+  <si>
+    <t>MFG FC2</t>
+  </si>
+  <si>
+    <t>ENT FC1</t>
+  </si>
+  <si>
+    <t>ENT FC2</t>
+  </si>
+  <si>
+    <t>DATA Ports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connected </t>
+  </si>
+  <si>
+    <t>No changes</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENT N/W </t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFG N/W </t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>ec6rr0u13-</t>
+  </si>
+  <si>
+    <t>F31SYP3</t>
+  </si>
+  <si>
+    <t>ec6rr0u11.myl.com</t>
+  </si>
+  <si>
+    <t>G31SYP3</t>
+  </si>
+  <si>
+    <t>ec6rr0u13.myl.com</t>
+  </si>
+  <si>
+    <t>H31SYP3</t>
+  </si>
+  <si>
+    <t>ec6rr0u15.myl.com</t>
+  </si>
+  <si>
+    <t>J31SYP3</t>
+  </si>
+  <si>
+    <t>ec6rr0u17.myl.com</t>
+  </si>
+  <si>
+    <t>141SYP3</t>
+  </si>
+  <si>
+    <t>ec6rr0u19.myl.com</t>
+  </si>
+  <si>
+    <t>WFH setup GST Bill</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>27" Monitor</t>
+  </si>
+  <si>
+    <t>Laptop Stand</t>
+  </si>
+  <si>
+    <t>WebCam</t>
+  </si>
+  <si>
+    <t>Headset Logitech</t>
+  </si>
+  <si>
+    <t>KeyBoard</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>WiFi D-Link</t>
+  </si>
+  <si>
+    <t>MicroPhone</t>
+  </si>
+  <si>
+    <t>Table Lamp</t>
+  </si>
+  <si>
+    <t>Cables&amp;Connectors</t>
+  </si>
+  <si>
+    <t>Water Bottle</t>
+  </si>
+  <si>
+    <t>NotePad&amp;Pens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>7956/-</t>
+  </si>
+  <si>
+    <t>GST amount need to Pay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,8 +518,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +577,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -425,16 +739,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,6 +969,111 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -803,216 +1389,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858DD6FF-18F7-48AE-827C-5AF80E8AA1C3}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="48.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1022,66 +1609,66 @@
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.35">
-      <c r="A10" s="19">
+      <c r="A10" s="18">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1113,22 +1700,22 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1139,139 +1726,1419 @@
       <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="J16" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="18" t="s">
+      <c r="I18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="17" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="M18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>35</v>
       </c>
       <c r="D19" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>21</v>
+      <c r="M19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0483E39B-4C1C-4F81-A6C9-4E516DBD7A83}">
+  <dimension ref="A1:R39"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.90625" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" customWidth="1"/>
+    <col min="3" max="3" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6328125" customWidth="1"/>
+    <col min="13" max="13" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="24">
+        <v>7</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="49"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="26">
+        <v>13</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="26">
+        <v>4</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="15">
+        <v>13</v>
+      </c>
+      <c r="P4" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>4</v>
+      </c>
+      <c r="R4" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="26">
+        <v>13</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5" s="15">
+        <v>14</v>
+      </c>
+      <c r="P5" s="15">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>5</v>
+      </c>
+      <c r="R5" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="50"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="26">
+        <v>4</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O6" s="15">
+        <v>16</v>
+      </c>
+      <c r="P6" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>6</v>
+      </c>
+      <c r="R6" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8" spans="1:18" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+    </row>
+    <row r="9" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="24">
+        <v>2</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="25">
+        <v>10</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" s="15">
+        <v>17</v>
+      </c>
+      <c r="P9" s="15">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>7</v>
+      </c>
+      <c r="R9" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="26">
+        <v>14</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="15">
+        <v>18</v>
+      </c>
+      <c r="P10" s="15">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>8</v>
+      </c>
+      <c r="R10" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="26">
+        <v>5</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="26">
+        <v>14</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="26">
+        <v>5</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+    </row>
+    <row r="15" spans="1:18" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="27">
+        <v>14</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" spans="1:18" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="24">
+        <v>3</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="25">
+        <v>8</v>
+      </c>
+      <c r="J16" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="26">
+        <v>16</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="O17" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="26">
+        <v>6</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="O18" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="36" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19" s="26">
+        <v>16</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="O19" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="26">
+        <v>6</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="O20" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="27">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+    </row>
+    <row r="22" spans="1:17" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="27">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+    </row>
+    <row r="23" spans="1:17" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="24">
+        <v>4</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" s="25">
+        <v>9</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="26">
+        <v>18</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25" s="26">
+        <v>8</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="26">
+        <v>18</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="P26" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q26" s="35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="26">
+        <v>8</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="P27" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q27" s="35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="27">
+        <v>27</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+    </row>
+    <row r="29" spans="1:17" ht="16" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="27">
+        <v>28</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="1:17" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="24">
+        <v>5</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="25">
+        <v>11</v>
+      </c>
+      <c r="J30" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="26">
+        <v>17</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="26">
+        <v>7</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33" s="26">
+        <v>17</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="26">
+        <v>7</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="45"/>
+    </row>
+    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A31:E34"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:E6"/>
+    <mergeCell ref="A10:E13"/>
+    <mergeCell ref="A17:E20"/>
+    <mergeCell ref="A24:E27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64416896-0871-4F50-8B62-37D342F3E3FC}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="52"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15">
+        <v>18750</v>
+      </c>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3750</v>
+      </c>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3500</v>
+      </c>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2350</v>
+      </c>
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>950</v>
+      </c>
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
+        <v>750</v>
+      </c>
+      <c r="E8" s="52"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15">
+        <v>3800</v>
+      </c>
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15">
+        <v>3850</v>
+      </c>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="15">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1950</v>
+      </c>
+      <c r="E12" s="52"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15">
+        <v>350</v>
+      </c>
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="53">
+        <v>1</v>
+      </c>
+      <c r="D14" s="53">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="15">
+        <f>SUM(D3:D14)</f>
+        <v>44200</v>
+      </c>
+      <c r="E15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="54">
+        <v>0.18</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="55">
+        <v>52156</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>